--- a/TestData/UserDetails.xlsx
+++ b/TestData/UserDetails.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>${Condition}</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>Anujwq3</t>
   </si>
 </sst>
 </file>
@@ -991,7 +994,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -999,6 +1002,7 @@
     <col min="1" max="1" width="13.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="22.1111111111111" customWidth="1"/>
     <col min="3" max="3" width="21.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="14.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1036,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/UserDetails.xlsx
+++ b/TestData/UserDetails.xlsx
@@ -44,7 +44,7 @@
     <t>FMLName1</t>
   </si>
   <si>
-    <t>FName Mname LName</t>
+    <t>FName LName</t>
   </si>
   <si>
     <t>Partial</t>
@@ -994,7 +994,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
